--- a/SuppXLS/Scen_DemProj_SETs.xlsx
+++ b/SuppXLS/Scen_DemProj_SETs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/SuppXLS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{369194DF-E832-4BA9-A45C-96F2685C6DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{6B4276BF-FDF4-447C-8DCC-5FECEAB73AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C53FE082-898C-45CC-A3D4-6B4B479007CF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY_Data" sheetId="6" r:id="rId1"/>
@@ -121,7 +121,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,6 +189,19 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -278,7 +291,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -298,6 +311,8 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyFont="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="40% - Accent3" xfId="1" builtinId="39"/>
@@ -547,6 +562,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -838,7 +857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
@@ -956,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1017,13 +1036,13 @@
       </c>
       <c r="F4" s="12">
         <f>BY_Data!$H$4*(1+$J$4)^(E4-2022)</f>
-        <v>3755.2094422803921</v>
+        <v>4749.6121392071973</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>15</v>
       </c>
       <c r="J4">
-        <v>9.4822485813413682E-2</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1034,13 +1053,15 @@
         <v>2030</v>
       </c>
       <c r="F5" s="12">
-        <f>BY_Data!$H$4*(1+$J$4)^(E5-2022)</f>
-        <v>5906.8059925697244</v>
+        <f>F4*(1+$J$5)^(E5-2025)</f>
+        <v>13317.342227437761</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="9"/>
+      <c r="J5">
+        <v>0.22900000000000001</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
@@ -1050,13 +1071,15 @@
         <v>2035</v>
       </c>
       <c r="F6" s="12">
-        <f>BY_Data!$H$4*(1+$J$4)^(E6-2022)</f>
-        <v>9291.1880336213835</v>
+        <f>F$5*(1+$J$6)^(E6-2030)</f>
+        <v>20964.676060713806</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="9"/>
+      <c r="J6">
+        <v>9.5000000000000001E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
@@ -1066,8 +1089,8 @@
         <v>2040</v>
       </c>
       <c r="F7" s="12">
-        <f>BY_Data!$H$4*(1+$J$4)^(E7-2022)</f>
-        <v>14614.696197014158</v>
+        <f t="shared" ref="F7:F9" si="0">F$5*(1+$J$6)^(E7-2030)</f>
+        <v>33003.405245915135</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>15</v>
@@ -1082,25 +1105,25 @@
         <v>2045</v>
       </c>
       <c r="F8" s="12">
-        <f>BY_Data!$H$4*(1+$J$4)^(E8-2022)</f>
-        <v>22988.378252395603</v>
+        <f t="shared" si="0"/>
+        <v>51955.239120876387</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9">
+    <row r="9" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="15">
         <v>2050</v>
       </c>
       <c r="F9" s="12">
-        <f>BY_Data!$H$4*(1+$J$4)^(E9-2022)</f>
-        <v>36159.871375443494</v>
-      </c>
-      <c r="G9" s="14" t="s">
+        <f t="shared" si="0"/>
+        <v>81789.950218592829</v>
+      </c>
+      <c r="G9" s="16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1112,8 +1135,8 @@
         <v>2025</v>
       </c>
       <c r="F10" s="12">
-        <f>BY_Data!$H$5*(1+$J$4)^(E10-2022)</f>
-        <v>3418.6834798338832</v>
+        <f>BY_Data!H$5*(1+$J$4)^(E10-2022)</f>
+        <v>4323.9720195382133</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>16</v>
@@ -1127,8 +1150,8 @@
         <v>2030</v>
       </c>
       <c r="F11" s="12">
-        <f>BY_Data!$H$5*(1+$J$4)^(E11-2022)</f>
-        <v>5377.4630618523306</v>
+        <f>F10*(1+$J$5)^(E11-2025)</f>
+        <v>12123.898431771198</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>16</v>
@@ -1142,8 +1165,8 @@
         <v>2035</v>
       </c>
       <c r="F12" s="12">
-        <f>BY_Data!$H$5*(1+$J$4)^(E12-2022)</f>
-        <v>8458.5511212612601</v>
+        <f>F$11*(1+$J$6)^(E12-2030)</f>
+        <v>19085.910602447733</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>16</v>
@@ -1157,8 +1180,8 @@
         <v>2040</v>
       </c>
       <c r="F13" s="12">
-        <f>BY_Data!$H$5*(1+$J$4)^(E13-2022)</f>
-        <v>13304.989034428607</v>
+        <f t="shared" ref="F13:F15" si="1">F$11*(1+$J$6)^(E13-2030)</f>
+        <v>30045.779876383363</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>16</v>
@@ -1172,8 +1195,8 @@
         <v>2045</v>
       </c>
       <c r="F14" s="12">
-        <f>BY_Data!$H$5*(1+$J$4)^(E14-2022)</f>
-        <v>20928.257176492592</v>
+        <f t="shared" si="1"/>
+        <v>47299.230682989124</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>16</v>
@@ -1187,8 +1210,8 @@
         <v>2050</v>
       </c>
       <c r="F15" s="12">
-        <f>BY_Data!$H$5*(1+$J$4)^(E15-2022)</f>
-        <v>32919.376882765209</v>
+        <f t="shared" si="1"/>
+        <v>74460.281357553366</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>16</v>
@@ -1202,8 +1225,8 @@
         <v>2025</v>
       </c>
       <c r="F16" s="12">
-        <f>BY_Data!$H$6*(1+$J$4)^(E16-2022)</f>
-        <v>10073.466958308234</v>
+        <f>BY_Data!H$6*(1+$J$4)^(E16-2022)</f>
+        <v>12740.98334180502</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>17</v>
@@ -1217,8 +1240,8 @@
         <v>2030</v>
       </c>
       <c r="F17" s="12">
-        <f>BY_Data!$H$6*(1+$J$4)^(E17-2022)</f>
-        <v>15845.192101763289</v>
+        <f>F16*(1+$J$5)^(E17-2025)</f>
+        <v>35724.187681822645</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>17</v>
@@ -1232,8 +1255,8 @@
         <v>2035</v>
       </c>
       <c r="F18" s="12">
-        <f>BY_Data!$H$6*(1+$J$4)^(E18-2022)</f>
-        <v>24923.902940358392</v>
+        <f>F$17*(1+$J$6)^(E18-2030)</f>
+        <v>56238.400237135786</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>17</v>
@@ -1247,8 +1270,8 @@
         <v>2040</v>
       </c>
       <c r="F19" s="12">
-        <f>BY_Data!$H$6*(1+$J$4)^(E19-2022)</f>
-        <v>39204.380343945282</v>
+        <f t="shared" ref="F19:F21" si="2">F$17*(1+$J$6)^(E19-2030)</f>
+        <v>88532.668381472104</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>17</v>
@@ -1262,8 +1285,8 @@
         <v>2045</v>
       </c>
       <c r="F20" s="12">
-        <f>BY_Data!$H$6*(1+$J$4)^(E20-2022)</f>
-        <v>61667.044757422016</v>
+        <f t="shared" si="2"/>
+        <v>139371.5564044092</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>17</v>
@@ -1277,8 +1300,8 @@
         <v>2050</v>
       </c>
       <c r="F21" s="12">
-        <f>BY_Data!$H$6*(1+$J$4)^(E21-2022)</f>
-        <v>96999.987648094466</v>
+        <f t="shared" si="2"/>
+        <v>219404.10347614138</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>17</v>

--- a/SuppXLS/Scen_DemProj_SETs.xlsx
+++ b/SuppXLS/Scen_DemProj_SETs.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/SuppXLS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{6B4276BF-FDF4-447C-8DCC-5FECEAB73AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C53FE082-898C-45CC-A3D4-6B4B479007CF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987A0130-A0D3-4A07-B93C-55FA88A7FDF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY_Data" sheetId="6" r:id="rId1"/>
-    <sheet name="CAR_Dem" sheetId="2" r:id="rId2"/>
+    <sheet name="MANENERGY_Dem" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -564,10 +564,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -861,13 +857,13 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -878,7 +874,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
@@ -904,7 +900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>12</v>
       </c>
@@ -924,7 +920,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -944,7 +940,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -975,27 +971,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18:F21"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="21.6" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1004,7 +1000,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1027,7 +1023,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>7</v>
       </c>
@@ -1045,7 +1041,7 @@
         <v>0.184</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>7</v>
       </c>
@@ -1063,7 +1059,7 @@
         <v>0.22900000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>7</v>
       </c>
@@ -1081,7 +1077,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>7</v>
       </c>
@@ -1097,7 +1093,7 @@
       </c>
       <c r="J7" s="9"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>7</v>
       </c>
@@ -1112,7 +1108,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D9" s="15" t="s">
         <v>7</v>
       </c>
@@ -1127,7 +1123,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>7</v>
       </c>
@@ -1142,7 +1138,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>7</v>
       </c>
@@ -1157,7 +1153,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>7</v>
       </c>
@@ -1172,7 +1168,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>7</v>
       </c>
@@ -1187,7 +1183,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>7</v>
       </c>
@@ -1202,7 +1198,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>7</v>
       </c>
@@ -1217,7 +1213,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>7</v>
       </c>
@@ -1232,7 +1228,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>7</v>
       </c>
@@ -1247,7 +1243,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>7</v>
       </c>
@@ -1262,7 +1258,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>7</v>
       </c>
@@ -1277,7 +1273,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>7</v>
       </c>
@@ -1292,7 +1288,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>7</v>
       </c>
